--- a/ig/ch-etoc/observations-summary.xlsx
+++ b/ig/ch-etoc/observations-summary.xlsx
@@ -83,10 +83,10 @@
     <t>null#29463-7</t>
   </si>
   <si>
-    <t>ch-etoc-cardiolology-observation</t>
-  </si>
-  <si>
-    <t>CH eTOC cardiology Observation</t>
+    <t>ch-etoc-cardiology-observation</t>
+  </si>
+  <si>
+    <t>CH eTOC Cardiology Observation</t>
   </si>
   <si>
     <t>LOINC#77412-5</t>
@@ -107,7 +107,7 @@
     <t>LOINC#26436-6</t>
   </si>
   <si>
-    <t>ch-etoc-pahtology-observation</t>
+    <t>ch-etoc-pathology-observation</t>
   </si>
   <si>
     <t>CH eTOC Pathology Observation</t>
@@ -125,7 +125,7 @@
     <t>LOINC#82810-3</t>
   </si>
   <si>
-    <t>ch-etoc-radiolology-observation</t>
+    <t>ch-etoc-radiology-observation</t>
   </si>
   <si>
     <t>CH eTOC Radiology Observation</t>

--- a/ig/ch-etoc/observations-summary.xlsx
+++ b/ig/ch-etoc/observations-summary.xlsx
@@ -62,7 +62,7 @@
     <t>null#8302-2</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-vitalsignresult (extensible)</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-vitalsignresult|4.0.1 (extensible)</t>
   </si>
   <si>
     <t>dateTimeĵ, Periodĵ</t>
